--- a/Scrapping_test/job_banks.xlsx
+++ b/Scrapping_test/job_banks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,368 +402,323 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ոսկերիչ-մասնագետ, ք. Սիսիան</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> 100000-250000 ՀՀ դրամ (ներառյալ հարկերը)  </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2019-04-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Մասնագետ, ք. Սիսիան</t>
+          <t>Ֆինանսական վերլուծաբան / Ներդրումային ծրագերի մշակում</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>BSC Business Support Center</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ցանկալի է </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Աշխատավարձի չափը կտեղեկացվի միայն հարցազրույցի հրավիրված թեկնածուներին` հարցազրույցից առաջ  </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2019-04-05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ոսկերիչ-մասնագետ</t>
+          <t>Վարկային մասնագետ Սևանի գրասենյակում</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">Առանց փորձի </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> – </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-04-19</t>
+          <t>2019-04-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Գրասենյակի օգնական</t>
+          <t xml:space="preserve">Վարկային մասնագետ «Բերդ» մասնաճյուղում </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
+          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ցանկալի է </t>
+          <t xml:space="preserve">Առանց փորձի </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Միջնակարգ </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> – </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Սևանի մասնաճյուղի և Հրազդանի ներկայացուցչության խնդրահարույց վարկեր հավաքագրող մասնագետ</t>
+          <t xml:space="preserve">Վարկային մասնագետ «Վարդենիս» մասնաճյուղում </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
+          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">Առանց փորձի </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Բակալավր </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
+          <t xml:space="preserve"> – </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C# Software Developer</t>
+          <t>հաշվապահության գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>ԲԼԵՍՍ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Full time (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1-3 years </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Higher </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-04-14</t>
+          <t>2019-04-30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Վարկային մասնագետ  Գյումրիի մասնաճյուղերում</t>
+          <t>ՏՏ դեպարտամենտի գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Առանց փորձի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Թերի բարձրագույն </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-04-14</t>
+          <t>2019-04-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Վարկային մասնագետ Երևանի մասնաճյուղերում</t>
+          <t>Ոսկերիչ-մասնագետ, ք. Սիսիան</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Առանց փորձի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-04-14</t>
+          <t>2019-04-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Սպառողական վարկավորման գծով գործակալ /Չարենցավան քաղաքի համար/</t>
+          <t>Մասնագետ, ք. Սիսիան</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (10:00 - 19:00) </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ցանկալի է </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -773,81 +728,71 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-04-10</t>
+          <t>2019-04-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ոսկերիչ /Վանաձորի և Երևանի մասնաճյուղերի համար/</t>
+          <t>Տեստավորող</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ԱՔՌԱ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">3-5 տարի </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Միջնակարգ մասնագիտական </t>
+          <t xml:space="preserve">Բակալավր </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Մրցակցային (առողջության ապահովագրություն և այլ առավելություններ) </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2019-04-08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Մասնաճյուղի կառավարիչ /Կապան մասնաճյուղի համար/</t>
+          <t>Վարկային պորտֆելի վերլուծաբան</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3-5 տարի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -857,39 +802,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2019-04-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Գրասենյակի աշխատակից</t>
+          <t>Գրասենյակի օգնական</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ֆինանսական Համակարգի Հաշտարար</t>
+          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Միջնակարգ </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -899,81 +839,71 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-04-07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Information Security Senior Specialist</t>
+          <t>Սևանի մասնաճյուղի և Հրազդանի ներկայացուցչության խնդրահարույց վարկեր հավաքագրող մասնագետ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ԱՔՌԱ</t>
+          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Full time (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1-3 years </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bachelor </t>
+          <t xml:space="preserve">Բակալավր </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Competitive salary (medical insurance, other benefits). </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2019-04-07</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու</t>
+          <t>Սպառողական վարկավորման գծով գործակալ /Չարենցավան քաղաքի համար/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Կոնվերս Բանկ ՓԲԸ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -983,39 +913,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-04-01</t>
+          <t>2019-04-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փորձնակ, Փոքր և Միջին Ձեռնարկությունների ֆինանսավորման վարչություն ք. Իջևան, Հրազդան, Արմավիր, Էջմիածին </t>
+          <t>Գրասենյակի աշխատակից</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Կոնվերս Բանկ ՓԲԸ</t>
+          <t>Ֆինանսական Համակարգի Հաշտարար</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Առանց փորձի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1025,123 +950,108 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2019-03-25</t>
+          <t>2019-04-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Պարտքերի հավաքագրման բաժին մասնագետ</t>
+          <t>Ֆինանսական խորհրդատու</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ԳՈՒԴԿՐԵԴԻՏ</t>
+          <t>Կոնվերս Բանկ ՓԲԸ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ցանկալի է </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2019-04-01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման մասնագետ` Կապանում</t>
+          <t>Պարտքերի հավաքագրման բաժին մասնագետ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
+          <t>ԳՈՒԴԿՐԵԴԻՏ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>հերթափոխով </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2019-04-04</t>
+          <t>2019-04-15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման մասնագետ` Վարդենիսում</t>
+          <t>Ռիսկերի կառավարման մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>հերթափոխով </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1-3 տարի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1151,47 +1061,116 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2019-04-03</t>
+          <t>2019-04-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Հաճախորդների սպասարկման մասնագետ` Կապանում</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">հերթափոխով </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-3 տարի </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Բարձրագույն </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2019-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Հաճախորդների սպասարկման մասնագետ` Վարդենիսում</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">հերթափոխով </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-3 տարի </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Բարձրագույն </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2019-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Կոնտակտային կենտրոնի Մասնագետ</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>հերթափոխով </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">հերթափոխով </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-3 տարի </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Բարձրագույն </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">  </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>

--- a/Scrapping_test/job_banks.xlsx
+++ b/Scrapping_test/job_banks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,12 +402,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t xml:space="preserve">Միկրովարկավորման բլոկի կրտսեր մասնագետ </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
+          <t>"Կամուրջ" ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -417,7 +417,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -427,71 +427,71 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100000-250000 ՀՀ դրամ (ներառյալ հարկերը)  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-04-14</t>
+          <t>2019-08-12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ֆինանսական վերլուծաբան / Ներդրումային ծրագերի մշակում</t>
+          <t>Ոսկերիչ /Աշտարակ մասնաճյուղի համար/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BSC Business Support Center</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Միջնակարգ մասնագիտական </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Աշխատավարձի չափը կտեղեկացվի միայն հարցազրույցի հրավիրված թեկնածուներին` հարցազրույցից առաջ  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-04-05</t>
+          <t>2019-08-20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Վարկային մասնագետ Սևանի գրասենյակում</t>
+          <t xml:space="preserve">Սպառողական վարկավորման գծով գործակալ </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
+          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Առանց փորձի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -501,24 +501,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-04-21</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վարկային մասնագետ «Բերդ» մասնաճյուղում </t>
+          <t>Ոսկերիչ /Վանաձորի և Երևանի մասնաճյուղերի համար/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,44 +528,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Առանց փորձի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Միջնակարգ մասնագիտական </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-08-15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վարկային մասնագետ «Վարդենիս» մասնաճյուղում </t>
+          <t>Անհատական բանկիր</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"ՖԻՆՔԱ" ՈՒՎԿ ՓԲԸ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
+          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Առանց փորձի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -575,24 +575,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> – </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-08-19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>հաշվապահության գլխավոր մասնագետ</t>
+          <t>Ոսկերիչ-մասնագետ, Շիրակի մարզ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ԲԼԵՍՍ ՈՒՎԿ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2019-08-03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ՏՏ դեպարտամենտի գլխավոր մասնագետ</t>
+          <t xml:space="preserve">Բիզնես վերլուծաբան </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Թերի բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -654,19 +654,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-04-10</t>
+          <t>2019-08-03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ոսկերիչ-մասնագետ, ք. Սիսիան</t>
+          <t>Ռիսկերի կառավարման գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,29 +681,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Մրցակցային, լայն առավելությունների փաթեթ </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Մասնագետ, ք. Սիսիան</t>
+          <t>Ներքին աուդիտի բաժնի պետ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -713,34 +713,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">3-5 տարի </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Մրցակցային, լայն առավելությունների փաթեթ </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2019-08-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Տեստավորող</t>
+          <t>Ներքին աուդիտոր</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ԱՔՌԱ</t>
+          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -750,34 +750,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-5 տարի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բակալավր </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Մրցակցային (առողջության ապահովագրություն և այլ առավելություններ) </t>
+          <t xml:space="preserve"> 200000-300000 ՀՀ դրամ (ներառյալ հարկեր) </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-04-08</t>
+          <t>2019-08-16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Վարկային պորտֆելի վերլուծաբան</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
+          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -792,29 +792,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> 200000-300000 ՀՀ դրամ (ներառյալ հարկերը)  </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-04-08</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Գրասենյակի օգնական</t>
+          <t>Հեռախոսազանգերի համակարգման կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
+          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Միջնակարգ </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> պայմանագրային </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-08-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Սևանի մասնաճյուղի և Հրազդանի ներկայացուցչության խնդրահարույց վարկեր հավաքագրող մասնագետ</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>“ԱՐԵԳԱԿ” ՈՒՎԿ  ՓԲԸ</t>
+          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -866,39 +866,39 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բակալավր </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
+          <t xml:space="preserve"> պայմանագրային </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-08-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Սպառողական վարկավորման գծով գործակալ /Չարենցավան քաղաքի համար/</t>
+          <t>մարքեթինգի գծով մասնագետ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
+          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">3-5 տարի </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -908,271 +908,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> պայմանագրային </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-04-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Գրասենյակի աշխատակից</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ֆինանսական Համակարգի Հաշտարար</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2019-04-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ֆինանսական խորհրդատու</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Կոնվերս Բանկ ՓԲԸ</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2019-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Պարտքերի հավաքագրման բաժին մասնագետ</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ԳՈՒԴԿՐԵԴԻՏ</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ցանկալի է </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2019-04-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ռիսկերի կառավարման մասնագետ</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Էվոկաբանկ</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2019-04-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Հաճախորդների սպասարկման մասնագետ` Կապանում</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">հերթափոխով </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2019-04-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Հաճախորդների սպասարկման մասնագետ` Վարդենիսում</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">հերթափոխով </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2019-04-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Կոնտակտային կենտրոնի Մասնագետ</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ՎԱՐԿՍ ԷՅ ԷՄ</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">հերթափոխով </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2019-04-03</t>
+          <t>2019-08-01</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/job_banks.xlsx
+++ b/Scrapping_test/job_banks.xlsx
@@ -402,12 +402,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Միկրովարկավորման բլոկի կրտսեր մասնագետ </t>
+          <t>Բժիշկ-փորձագետ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"Կամուրջ" ՈՒՎԿ ՓԲԸ</t>
+          <t>Սիլ-Ինշուրանս</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -417,34 +417,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-08-12</t>
+          <t>2019-12-03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ոսկերիչ /Աշտարակ մասնաճյուղի համար/</t>
+          <t xml:space="preserve">  Մասնագետ, ք. Երևան   </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,12 +454,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Միջնակարգ մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -469,24 +469,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-08-20</t>
+          <t>2019-12-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Սպառողական վարկավորման գծով գործակալ </t>
+          <t xml:space="preserve">  Մասնագետ, ք. Կապան</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (10:00 - 19:00) </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -506,19 +506,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-12-26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ոսկերիչ /Վանաձորի և Երևանի մասնաճյուղերի համար/</t>
+          <t>Սրահի ադմինիստրատոր, ք. Արթիկ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Միջնակարգ մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -543,19 +543,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-08-15</t>
+          <t>2019-12-30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Անհատական բանկիր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>ՔԱՐԴ ԱգրոԿրեդիտ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -580,19 +580,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-08-19</t>
+          <t>2019-12-03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ոսկերիչ-մասնագետ, Շիրակի մարզ</t>
+          <t>Վաճառքների բաժնի վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -612,24 +612,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-08-03</t>
+          <t>2019-12-13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բիզնես վերլուծաբան </t>
+          <t>“Շենգավիթ” մասնաճյուղի սրահի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,34 +639,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-08-03</t>
+          <t>2019-12-20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ռիսկերի կառավարման գլխավոր մասնագետ</t>
+          <t>“Սեբաստիա” մասնաճյուղի սրահի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Էվոկաբանկ</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -676,29 +676,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Մրցակցային, լայն առավելությունների փաթեթ </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-12-20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ներքին աուդիտի բաժնի պետ</t>
+          <t>Գործառնական ռիսկերի կառավարման մասնագետ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-5 տարի </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -723,24 +723,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Մրցակցային, լայն առավելությունների փաթեթ </t>
+          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-08-15</t>
+          <t>2019-12-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ներքին աուդիտոր</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">3-5 տարի </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -760,24 +760,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200000-300000 ՀՀ դրամ (ներառյալ հարկեր) </t>
+          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-08-16</t>
+          <t>2019-12-15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վարկային մասնագետ մասնաճյուղում</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ԳԼՈԲԱԼ ԿՐԵԴԻՏ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -792,29 +792,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200000-300000 ՀՀ դրամ (ներառյալ հարկերը)  </t>
+          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-12-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Հեռախոսազանգերի համակարգման կենտրոնի մասնագետ</t>
+          <t>Լոռվա մարզի մասնաճյուղերի կառավարիչ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">3-5 տարի </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -834,24 +834,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> պայմանագրային </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-08-01</t>
+          <t>2019-12-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Իրավաբան</t>
+          <t>Մանրածախ խնդրահարույց վարկերի հետ աշխատանքների վարչության մասնագետ /պայմանագրային/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -866,54 +866,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> պայմանագրային </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-08-01</t>
+          <t>2019-12-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>մարքեթինգի գծով մասնագետ</t>
+          <t>&lt;&lt;Նոր Նորք&gt;&gt; մասնաճյուղի վարկային մասնագետ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>«ԱՐՄԵՆԻԱ ԻՆՇՈՒՐԱՆՍ» Ապահովագրական ՍՊԸ</t>
+          <t>ԲԼԵՍՍ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-5 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն </t>
+          <t xml:space="preserve">Միջնակարգ </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> պայմանագրային </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-08-01</t>
+          <t>2019-12-22</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/job_banks.xlsx
+++ b/Scrapping_test/job_banks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,12 +402,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Բժիշկ-փորձագետ</t>
+          <t>“Մասիս” մասնաճյուղի սրահի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Սիլ-Ինշուրանս</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -417,12 +417,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
+          <t xml:space="preserve">Բարձրագույն </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -432,19 +432,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2020-07-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Մասնագետ, ք. Երևան   </t>
+          <t>“Ագարակ” մասնաճյուղի ՀՍԴԳ բաժնի սպասարկող</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,7 +454,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -464,24 +464,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-12-15</t>
+          <t>2020-07-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Մասնագետ, ք. Կապան</t>
+          <t>“Ագարակ” մասնաճյուղի Ֆինանսական խորհրդատու</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան բանկ</t>
+          <t>Հայբիզբեսբանկ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ցանկալի է </t>
+          <t xml:space="preserve">1-3 տարի </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -501,19 +501,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> Պայմանագրային </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-07-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Սրահի ադմինիստրատոր, ք. Արթիկ</t>
+          <t>Հաճախորդների սպասարկման մասնագետ, ք. Էջմիածին</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -543,29 +543,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2020-07-05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Հաճախորդների սպասարկման մասնագետ, ք. Մասիս</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ՔԱՐԴ ԱգրոԿրեդիտ</t>
+          <t>ՎՏԲ-Հայաստան բանկ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ամբողջ օրը (8 ժամ, սկիզբը` ազատ) </t>
+          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -580,19 +580,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2020-07-05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Վաճառքների բաժնի վաճառքի մենեջեր</t>
+          <t>Ինֆո խորհրդատու</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Հայբիզբեսբանկ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարի </t>
+          <t xml:space="preserve">Ցանկալի է </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -612,308 +612,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
+          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>“Շենգավիթ” մասնաճյուղի սրահի ադմինիստրատոր</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Հայբիզբեսբանկ</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ցանկալի է </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2019-12-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>“Սեբաստիա” մասնաճյուղի սրահի ադմինիստրատոր</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Հայբիզբեսբանկ</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ցանկալի է </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2019-12-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Գործառնական ռիսկերի կառավարման մասնագետ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Էվոկաբանկ</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Իրավաբան</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Էվոկաբանկ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3-5 տարի </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Վարկային մասնագետ մասնաճյուղում</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Էվոկաբանկ</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն մասնագիտական </t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> մրցակցային, առավելությունների լայն փաթեթ </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Լոռվա մարզի մասնաճյուղերի կառավարիչ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Յունիբանկ</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3-5 տարի </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2019-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Մանրածախ խնդրահարույց վարկերի հետ աշխատանքների վարչության մասնագետ /պայմանագրային/</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Յունիբանկ</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-3 տարի </t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձրագույն </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>&lt;&lt;Նոր Նորք&gt;&gt; մասնաճյուղի վարկային մասնագետ</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ԲԼԵՍՍ ՈՒՎԿ</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ամբողջ օրը (09:00 - 18:00) </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ցանկալի է </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Միջնակարգ </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Պայմանագրային </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
+          <t>2020-07-13</t>
         </is>
       </c>
     </row>
